--- a/Running projects/Engro 3rd & 8th Floor/2301_8, 3 & 7_BMS_BOQ_000_30012024 (Revised by IK Shakeel on 31-01-2024).xlsx
+++ b/Running projects/Engro 3rd & 8th Floor/2301_8, 3 & 7_BMS_BOQ_000_30012024 (Revised by IK Shakeel on 31-01-2024).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xls\Sent BOQ\Engro ARIBA\Sent to IK\Final IK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Engro 3rd &amp; 8th Floor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415245EA-504E-4082-A007-6AB20548A2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C8977F-6F50-4FC3-9F12-33EEAD491C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3F" sheetId="59" r:id="rId1"/>
@@ -559,7 +559,7 @@
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1036,6 +1036,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1415,8 +1419,8 @@
   </sheetPr>
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="E26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2357,6 +2361,7 @@
         <f>J39+#REF!+'8F'!J48</f>
         <v>#REF!</v>
       </c>
+      <c r="L42" s="136"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J47" s="84"/>
@@ -2397,7 +2402,7 @@
   </sheetPr>
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
